--- a/LogBookAnnazar.xlsx
+++ b/LogBookAnnazar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annazar\Documents\GitHub\Project_Kelompok2\Project_Kelompok_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annazar\Documents\GitHub\Project_Kelompok_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E3F59E8-CAC2-46C5-9B31-F8CBA232F360}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -78,12 +79,15 @@
   </si>
   <si>
     <t>Add search and filter status</t>
+  </si>
+  <si>
+    <t>Add user transaction and add it to transaction log</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -156,9 +160,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,21 +461,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -619,9 +620,15 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="6">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7">
+        <v>43260</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
